--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.59314703740959</v>
+        <v>107.928617</v>
       </c>
       <c r="H2">
-        <v>95.59314703740959</v>
+        <v>323.785851</v>
       </c>
       <c r="I2">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J2">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.440607762898742</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N2">
-        <v>0.440607762898742</v>
+        <v>7.85986</v>
       </c>
       <c r="O2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q2">
-        <v>42.11908266460355</v>
+        <v>282.7679398712066</v>
       </c>
       <c r="R2">
-        <v>42.11908266460355</v>
+        <v>2544.91145884086</v>
       </c>
       <c r="S2">
-        <v>0.05889492630744321</v>
+        <v>0.1261960451629472</v>
       </c>
       <c r="T2">
-        <v>0.05889492630744321</v>
+        <v>0.1261960451629472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.59314703740959</v>
+        <v>107.928617</v>
       </c>
       <c r="H3">
-        <v>95.59314703740959</v>
+        <v>323.785851</v>
       </c>
       <c r="I3">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J3">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01110445141544</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N3">
-        <v>1.01110445141544</v>
+        <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q3">
-        <v>96.65465649433551</v>
+        <v>61.50294251642165</v>
       </c>
       <c r="R3">
-        <v>96.65465649433551</v>
+        <v>553.526482647795</v>
       </c>
       <c r="S3">
-        <v>0.1351517770896046</v>
+        <v>0.02744804844209573</v>
       </c>
       <c r="T3">
-        <v>0.1351517770896046</v>
+        <v>0.02744804844209573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>143.177403658757</v>
+        <v>107.928617</v>
       </c>
       <c r="H4">
-        <v>143.177403658757</v>
+        <v>323.785851</v>
       </c>
       <c r="I4">
-        <v>0.2906390681965676</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J4">
-        <v>0.2906390681965676</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.440607762898742</v>
+        <v>1.105183</v>
       </c>
       <c r="N4">
-        <v>0.440607762898742</v>
+        <v>3.315549</v>
       </c>
       <c r="O4">
-        <v>0.3035090278598324</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="P4">
-        <v>0.3035090278598324</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="Q4">
-        <v>63.08507552373507</v>
+        <v>119.280872721911</v>
       </c>
       <c r="R4">
-        <v>63.08507552373507</v>
+        <v>1073.527854497199</v>
       </c>
       <c r="S4">
-        <v>0.08821158104642776</v>
+        <v>0.05323366718287151</v>
       </c>
       <c r="T4">
-        <v>0.08821158104642776</v>
+        <v>0.05323366718287151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.177403658757</v>
+        <v>143.300008</v>
       </c>
       <c r="H5">
-        <v>143.177403658757</v>
+        <v>429.900024</v>
       </c>
       <c r="I5">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J5">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.01110445141544</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N5">
-        <v>1.01110445141544</v>
+        <v>7.85986</v>
       </c>
       <c r="O5">
-        <v>0.6964909721401676</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P5">
-        <v>0.6964909721401676</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q5">
-        <v>144.7673101814745</v>
+        <v>375.4393336262934</v>
       </c>
       <c r="R5">
-        <v>144.7673101814745</v>
+        <v>3378.95400263664</v>
       </c>
       <c r="S5">
-        <v>0.2024274871501398</v>
+        <v>0.1675542111451192</v>
       </c>
       <c r="T5">
-        <v>0.2024274871501398</v>
+        <v>0.1675542111451192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>118.475757479524</v>
+        <v>143.300008</v>
       </c>
       <c r="H6">
-        <v>118.475757479524</v>
+        <v>429.900024</v>
       </c>
       <c r="I6">
-        <v>0.2404966347888189</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J6">
-        <v>0.2404966347888189</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.440607762898742</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N6">
-        <v>0.440607762898742</v>
+        <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.3035090278598324</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P6">
-        <v>0.3035090278598324</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q6">
-        <v>52.20133846078697</v>
+        <v>81.65927072545334</v>
       </c>
       <c r="R6">
-        <v>52.20133846078697</v>
+        <v>734.93343652908</v>
       </c>
       <c r="S6">
-        <v>0.07299289982831557</v>
+        <v>0.03644358345976681</v>
       </c>
       <c r="T6">
-        <v>0.07299289982831557</v>
+        <v>0.03644358345976681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>118.475757479524</v>
+        <v>143.300008</v>
       </c>
       <c r="H7">
-        <v>118.475757479524</v>
+        <v>429.900024</v>
       </c>
       <c r="I7">
-        <v>0.2404966347888189</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J7">
-        <v>0.2404966347888189</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01110445141544</v>
+        <v>1.105183</v>
       </c>
       <c r="N7">
-        <v>1.01110445141544</v>
+        <v>3.315549</v>
       </c>
       <c r="O7">
-        <v>0.6964909721401676</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="P7">
-        <v>0.6964909721401676</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="Q7">
-        <v>119.7913657723628</v>
+        <v>158.372732741464</v>
       </c>
       <c r="R7">
-        <v>119.7913657723628</v>
+        <v>1425.354594673176</v>
       </c>
       <c r="S7">
-        <v>0.1675037349605033</v>
+        <v>0.07067990997396759</v>
       </c>
       <c r="T7">
-        <v>0.1675037349605033</v>
+        <v>0.07067990997396759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.38327719692</v>
+        <v>134.5459086666667</v>
       </c>
       <c r="H8">
-        <v>135.38327719692</v>
+        <v>403.637726</v>
       </c>
       <c r="I8">
-        <v>0.2748175936175657</v>
+        <v>0.2578978317505474</v>
       </c>
       <c r="J8">
-        <v>0.2748175936175657</v>
+        <v>0.2578978317505473</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.440607762898742</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N8">
-        <v>0.440607762898742</v>
+        <v>7.85986</v>
       </c>
       <c r="O8">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P8">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q8">
-        <v>59.65092289963519</v>
+        <v>352.5040018975956</v>
       </c>
       <c r="R8">
-        <v>59.65092289963519</v>
+        <v>3172.536017078361</v>
       </c>
       <c r="S8">
-        <v>0.08340962067764586</v>
+        <v>0.1573184391549133</v>
       </c>
       <c r="T8">
-        <v>0.08340962067764586</v>
+        <v>0.1573184391549133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>134.5459086666667</v>
+      </c>
+      <c r="H9">
+        <v>403.637726</v>
+      </c>
+      <c r="I9">
+        <v>0.2578978317505474</v>
+      </c>
+      <c r="J9">
+        <v>0.2578978317505473</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.709545</v>
+      </c>
+      <c r="O9">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P9">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q9">
+        <v>76.6707618105189</v>
+      </c>
+      <c r="R9">
+        <v>690.03685629467</v>
+      </c>
+      <c r="S9">
+        <v>0.03421726990876253</v>
+      </c>
+      <c r="T9">
+        <v>0.03421726990876253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>135.38327719692</v>
-      </c>
-      <c r="H9">
-        <v>135.38327719692</v>
-      </c>
-      <c r="I9">
-        <v>0.2748175936175657</v>
-      </c>
-      <c r="J9">
-        <v>0.2748175936175657</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.01110445141544</v>
-      </c>
-      <c r="N9">
-        <v>1.01110445141544</v>
-      </c>
-      <c r="O9">
-        <v>0.6964909721401676</v>
-      </c>
-      <c r="P9">
-        <v>0.6964909721401676</v>
-      </c>
-      <c r="Q9">
-        <v>136.8866342210162</v>
-      </c>
-      <c r="R9">
-        <v>136.8866342210162</v>
-      </c>
-      <c r="S9">
-        <v>0.1914079729399199</v>
-      </c>
-      <c r="T9">
-        <v>0.1914079729399199</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>134.5459086666667</v>
+      </c>
+      <c r="H10">
+        <v>403.637726</v>
+      </c>
+      <c r="I10">
+        <v>0.2578978317505474</v>
+      </c>
+      <c r="J10">
+        <v>0.2578978317505473</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.105183</v>
+      </c>
+      <c r="N10">
+        <v>3.315549</v>
+      </c>
+      <c r="O10">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P10">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q10">
+        <v>148.6978509779527</v>
+      </c>
+      <c r="R10">
+        <v>1338.280658801574</v>
+      </c>
+      <c r="S10">
+        <v>0.06636212268687149</v>
+      </c>
+      <c r="T10">
+        <v>0.06636212268687147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>135.927831</v>
+      </c>
+      <c r="H11">
+        <v>407.783493</v>
+      </c>
+      <c r="I11">
+        <v>0.2605467028826847</v>
+      </c>
+      <c r="J11">
+        <v>0.2605467028826847</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.619953333333334</v>
+      </c>
+      <c r="N11">
+        <v>7.85986</v>
+      </c>
+      <c r="O11">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="P11">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="Q11">
+        <v>356.12457392122</v>
+      </c>
+      <c r="R11">
+        <v>3205.12116529098</v>
+      </c>
+      <c r="S11">
+        <v>0.1589342583698396</v>
+      </c>
+      <c r="T11">
+        <v>0.1589342583698396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>135.927831</v>
+      </c>
+      <c r="H12">
+        <v>407.783493</v>
+      </c>
+      <c r="I12">
+        <v>0.2605467028826847</v>
+      </c>
+      <c r="J12">
+        <v>0.2605467028826847</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.709545</v>
+      </c>
+      <c r="O12">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P12">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q12">
+        <v>77.458247948965</v>
+      </c>
+      <c r="R12">
+        <v>697.1242315406849</v>
+      </c>
+      <c r="S12">
+        <v>0.034568715819985</v>
+      </c>
+      <c r="T12">
+        <v>0.034568715819985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>135.927831</v>
+      </c>
+      <c r="H13">
+        <v>407.783493</v>
+      </c>
+      <c r="I13">
+        <v>0.2605467028826847</v>
+      </c>
+      <c r="J13">
+        <v>0.2605467028826847</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.105183</v>
+      </c>
+      <c r="N13">
+        <v>3.315549</v>
+      </c>
+      <c r="O13">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P13">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q13">
+        <v>150.225128048073</v>
+      </c>
+      <c r="R13">
+        <v>1352.026152432657</v>
+      </c>
+      <c r="S13">
+        <v>0.06704372869286009</v>
+      </c>
+      <c r="T13">
+        <v>0.06704372869286009</v>
       </c>
     </row>
   </sheetData>
